--- a/results/result-dotnet-vs-mono-2016.xlsx
+++ b/results/result-dotnet-vs-mono-2016.xlsx
@@ -634,11 +634,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38595584"/>
-        <c:axId val="38606720"/>
+        <c:axId val="166578432"/>
+        <c:axId val="166830080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38595584"/>
+        <c:axId val="166578432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38606720"/>
+        <c:crossAx val="166830080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38606720"/>
+        <c:axId val="166830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38595584"/>
+        <c:crossAx val="166578432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -968,11 +968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="39532416"/>
-        <c:axId val="39867136"/>
+        <c:axId val="167565184"/>
+        <c:axId val="167566720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39532416"/>
+        <c:axId val="167565184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39867136"/>
+        <c:crossAx val="167566720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39867136"/>
+        <c:axId val="167566720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39532416"/>
+        <c:crossAx val="167565184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1163,7 +1163,7 @@
                   <c:v>20929.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17409.333333333336</c:v>
+                  <c:v>20310.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>58389.333333333336</c:v>
@@ -1179,6 +1179,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>70017.333333333343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47567.333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,7 +1268,7 @@
                   <c:v>31256.333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65605.666666666672</c:v>
+                  <c:v>85417.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>117716.33333333331</c:v>
@@ -1281,6 +1284,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>49923.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121975.66666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,11 +1301,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40712064"/>
-        <c:axId val="40729216"/>
+        <c:axId val="168052224"/>
+        <c:axId val="168053760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40712064"/>
+        <c:axId val="168052224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1315,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40729216"/>
+        <c:crossAx val="168053760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40729216"/>
+        <c:axId val="168053760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40712064"/>
+        <c:crossAx val="168052224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,6 +1497,9 @@
                 <c:pt idx="4">
                   <c:v>6462</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3304.9999999999995</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>10589.333333333334</c:v>
                 </c:pt>
@@ -1505,6 +1514,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>12954</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6055.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,6 +1602,9 @@
                 <c:pt idx="4">
                   <c:v>7116.3333333333321</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>10630.333333333334</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>16399.333333333336</c:v>
                 </c:pt>
@@ -1604,6 +1619,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9284.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,11 +1636,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41005440"/>
-        <c:axId val="41008128"/>
+        <c:axId val="168195200"/>
+        <c:axId val="168196736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41005440"/>
+        <c:axId val="168195200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1650,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41008128"/>
+        <c:crossAx val="168196736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41008128"/>
+        <c:axId val="168196736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41005440"/>
+        <c:crossAx val="168195200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,6 +1832,9 @@
                 <c:pt idx="4">
                   <c:v>177506.66666666669</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>105545</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>403286</c:v>
                 </c:pt>
@@ -1828,6 +1849,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>440149.33333333326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216158.33333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,6 +1937,9 @@
                 <c:pt idx="4">
                   <c:v>156733</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>346493.66666666663</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>369393.66666666663</c:v>
                 </c:pt>
@@ -1927,6 +1954,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>328337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>867790.66666666651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,11 +1971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42167296"/>
-        <c:axId val="42377984"/>
+        <c:axId val="168293120"/>
+        <c:axId val="168294656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42167296"/>
+        <c:axId val="168293120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1985,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42377984"/>
+        <c:crossAx val="168294656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42377984"/>
+        <c:axId val="168294656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42167296"/>
+        <c:crossAx val="168293120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2239,11 +2269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130567552"/>
-        <c:axId val="130843776"/>
+        <c:axId val="168370560"/>
+        <c:axId val="168372096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130567552"/>
+        <c:axId val="168370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130843776"/>
+        <c:crossAx val="168372096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2261,7 +2291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130843776"/>
+        <c:axId val="168372096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130567552"/>
+        <c:crossAx val="168370560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,7 +2974,7 @@
   <dimension ref="B1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,7 +3704,7 @@
         <v>7991.333333333333</v>
       </c>
       <c r="H22" s="1">
-        <v>8192.3333333333339</v>
+        <v>7893.666666666667</v>
       </c>
       <c r="I22" s="1">
         <v>33303.333333333336</v>
@@ -3692,7 +3722,7 @@
         <v>34675.333333333336</v>
       </c>
       <c r="N22" s="1">
-        <v>35209.666666666664</v>
+        <v>35073.333333333336</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3718,7 +3748,7 @@
         <v>20929.666666666668</v>
       </c>
       <c r="H23" s="1">
-        <v>17409.333333333336</v>
+        <v>20310.666666666664</v>
       </c>
       <c r="I23" s="1">
         <v>58389.333333333336</v>
@@ -3735,7 +3765,9 @@
       <c r="M23" s="1">
         <v>70017.333333333343</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>47567.333333333336</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -3760,7 +3792,7 @@
         <v>31256.333333333339</v>
       </c>
       <c r="H24" s="1">
-        <v>65605.666666666672</v>
+        <v>85417.666666666672</v>
       </c>
       <c r="I24" s="1">
         <v>117716.33333333331</v>
@@ -3777,7 +3809,9 @@
       <c r="M24" s="1">
         <v>49923.666666666664</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>121975.66666666666</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -3802,7 +3836,7 @@
         <v>60177.333333333336</v>
       </c>
       <c r="H25" s="1">
-        <v>91207.333333333328</v>
+        <v>113622</v>
       </c>
       <c r="I25" s="1">
         <v>209409</v>
@@ -3819,7 +3853,9 @@
       <c r="M25" s="1">
         <v>154616.33333333334</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>204616.33333333334</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -3985,7 +4021,9 @@
       <c r="G22" s="1">
         <v>2572.3333333333335</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>2556.3333333333335</v>
+      </c>
       <c r="I22" s="1">
         <v>1614</v>
       </c>
@@ -4001,7 +4039,9 @@
       <c r="M22" s="1">
         <v>1631.3333333333333</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>1680.3333333333333</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -4025,7 +4065,9 @@
       <c r="G23" s="1">
         <v>6462</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>3304.9999999999995</v>
+      </c>
       <c r="I23" s="1">
         <v>10589.333333333334</v>
       </c>
@@ -4041,7 +4083,9 @@
       <c r="M23" s="1">
         <v>12954</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>6055.666666666667</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -4065,7 +4109,9 @@
       <c r="G24" s="1">
         <v>7116.3333333333321</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>10630.333333333334</v>
+      </c>
       <c r="I24" s="1">
         <v>16399.333333333336</v>
       </c>
@@ -4081,7 +4127,9 @@
       <c r="M24" s="1">
         <v>9284.9999999999982</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>23440</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -4105,7 +4153,9 @@
       <c r="G25" s="1">
         <v>16150.666666666666</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>16491.666666666668</v>
+      </c>
       <c r="I25" s="1">
         <v>28602.666666666668</v>
       </c>
@@ -4121,7 +4171,9 @@
       <c r="M25" s="1">
         <v>23870.333333333332</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>31176</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -4284,7 +4336,9 @@
       <c r="G22" s="1">
         <v>80146.333333333328</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>79588</v>
+      </c>
       <c r="I22" s="1">
         <v>143408.33333333334</v>
       </c>
@@ -4300,7 +4354,9 @@
       <c r="M22" s="1">
         <v>139288.33333333334</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>149700.33333333334</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -4324,7 +4380,9 @@
       <c r="G23" s="1">
         <v>177506.66666666669</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>105545</v>
+      </c>
       <c r="I23" s="1">
         <v>403286</v>
       </c>
@@ -4340,7 +4398,9 @@
       <c r="M23" s="1">
         <v>440149.33333333326</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>216158.33333333334</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -4364,7 +4424,9 @@
       <c r="G24" s="1">
         <v>156733</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>346493.66666666663</v>
+      </c>
       <c r="I24" s="1">
         <v>369393.66666666663</v>
       </c>
@@ -4380,7 +4442,9 @@
       <c r="M24" s="1">
         <v>328337</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>867790.66666666651</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -4404,7 +4468,9 @@
       <c r="G25" s="1">
         <v>414386</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>531626.66666666663</v>
+      </c>
       <c r="I25" s="1">
         <v>916088</v>
       </c>
@@ -4420,7 +4486,9 @@
       <c r="M25" s="1">
         <v>907774.66666666663</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>1233649.3333333333</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
